--- a/data/mtd.xlsx
+++ b/data/mtd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="rev" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -595,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:L3"/>
     </sheetView>
   </sheetViews>
